--- a/testdata/QuickDemoMetabolomicsData.xlsx
+++ b/testdata/QuickDemoMetabolomicsData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbroadhurst/Github/QC-MXP/mlapp/res/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbroadhurst/Github/QC-MXP/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{997FBE5D-2D34-174C-9FF3-2E095FB78740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E96B09-66EB-0740-AC38-7A056DF13CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="237">
   <si>
     <t>Idx</t>
   </si>
@@ -745,6 +745,9 @@
   </si>
   <si>
     <t>mz:279.81844-rt:0.673</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:BM105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3912,7 +3917,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -5864,7 +5869,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -7801,7 +7806,7 @@
         <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -14027,7 +14032,7 @@
         <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -15964,7 +15969,7 @@
         <v>35</v>
       </c>
       <c r="C77" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -17868,7 +17873,7 @@
         <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="D87">
         <v>86</v>

--- a/testdata/QuickDemoMetabolomicsData.xlsx
+++ b/testdata/QuickDemoMetabolomicsData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10102"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbroadhurst/Github/QC-MXP/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E96B09-66EB-0740-AC38-7A056DF13CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC15BDE-D2B5-694F-979E-FD09F2B1C2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/testdata/QuickDemoMetabolomicsData.xlsx
+++ b/testdata/QuickDemoMetabolomicsData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbroadhurst/Github/QC-MXP/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvdbrdhrst/GitHub/QC-MXP/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC15BDE-D2B5-694F-979E-FD09F2B1C2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82D6A22-0FA8-3242-879B-FE917CB6AF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21542,7 +21542,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/testdata/QuickDemoMetabolomicsData.xlsx
+++ b/testdata/QuickDemoMetabolomicsData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10208"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvdbrdhrst/GitHub/QC-MXP/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbroadhurst/Github/QC-MXP/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82D6A22-0FA8-3242-879B-FE917CB6AF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF5D5FC-6936-7F41-AE6E-F29ACCC24675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21543,7 +21543,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
